--- a/Dataset/Open_Source_Dataset/Table_3.2.1.5.xlsx
+++ b/Dataset/Open_Source_Dataset/Table_3.2.1.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="13">
   <si>
     <t>H2</t>
   </si>
@@ -52,7 +52,7 @@
     <t>T3</t>
   </si>
   <si>
-    <t>T12</t>
+    <t>T1T2</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -459,24 +459,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3">
@@ -497,24 +485,12 @@
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3">
@@ -535,24 +511,12 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3">
@@ -573,24 +537,12 @@
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3">
@@ -611,24 +563,12 @@
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3">
@@ -649,24 +589,12 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3">
@@ -687,24 +615,12 @@
       <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3">
@@ -725,24 +641,12 @@
       <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3">
@@ -763,24 +667,12 @@
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
@@ -801,24 +693,12 @@
       <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
@@ -839,24 +719,12 @@
       <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
@@ -877,24 +745,12 @@
       <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
@@ -915,24 +771,12 @@
       <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
@@ -953,24 +797,12 @@
       <c r="F14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
@@ -991,24 +823,12 @@
       <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
@@ -1029,24 +849,12 @@
       <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
@@ -1067,24 +875,12 @@
       <c r="F17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
@@ -1105,24 +901,12 @@
       <c r="F18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
@@ -1143,24 +927,12 @@
       <c r="F19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
@@ -1181,24 +953,12 @@
       <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
@@ -1219,24 +979,12 @@
       <c r="F21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
@@ -1257,24 +1005,12 @@
       <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
@@ -1295,24 +1031,12 @@
       <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
@@ -1333,24 +1057,12 @@
       <c r="F24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
@@ -1371,24 +1083,12 @@
       <c r="F25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
@@ -1409,24 +1109,12 @@
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
@@ -1447,24 +1135,12 @@
       <c r="F27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
@@ -1485,24 +1161,12 @@
       <c r="F28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2">
@@ -1523,24 +1187,12 @@
       <c r="F29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2">
@@ -1561,24 +1213,12 @@
       <c r="F30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2">
@@ -1599,24 +1239,12 @@
       <c r="F31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2">
@@ -1637,24 +1265,12 @@
       <c r="F32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
@@ -1675,24 +1291,12 @@
       <c r="F33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
@@ -1713,24 +1317,12 @@
       <c r="F34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
@@ -1751,24 +1343,12 @@
       <c r="F35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
@@ -1789,24 +1369,12 @@
       <c r="F36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
@@ -1827,24 +1395,12 @@
       <c r="F37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
@@ -1865,24 +1421,12 @@
       <c r="F38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
@@ -1903,24 +1447,12 @@
       <c r="F39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
@@ -1941,24 +1473,12 @@
       <c r="F40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
@@ -1979,24 +1499,12 @@
       <c r="F41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
@@ -2017,24 +1525,12 @@
       <c r="F42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
@@ -2055,24 +1551,12 @@
       <c r="F43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
@@ -2093,24 +1577,12 @@
       <c r="F44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
@@ -2131,24 +1603,12 @@
       <c r="F45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
@@ -2169,24 +1629,12 @@
       <c r="F46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
@@ -2207,24 +1655,12 @@
       <c r="F47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2">
@@ -2245,24 +1681,12 @@
       <c r="F48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2">
@@ -2283,24 +1707,12 @@
       <c r="F49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2">
@@ -2321,24 +1733,12 @@
       <c r="F50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2">
@@ -2359,24 +1759,12 @@
       <c r="F51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0</v>
-      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2">
@@ -2397,24 +1785,12 @@
       <c r="F52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2">
@@ -2435,24 +1811,12 @@
       <c r="F53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2">
@@ -2473,24 +1837,12 @@
       <c r="F54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2">
@@ -2511,24 +1863,12 @@
       <c r="F55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3">
-        <v>0</v>
-      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2">
@@ -2549,24 +1889,12 @@
       <c r="F56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
@@ -2587,24 +1915,12 @@
       <c r="F57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2">
@@ -2625,24 +1941,12 @@
       <c r="F58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2">
@@ -2663,24 +1967,12 @@
       <c r="F59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2">
@@ -2701,24 +1993,12 @@
       <c r="F60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2">
@@ -2739,24 +2019,12 @@
       <c r="F61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2">
@@ -2777,24 +2045,12 @@
       <c r="F62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2">
@@ -2815,24 +2071,12 @@
       <c r="F63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3">
-        <v>0</v>
-      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2">
@@ -2853,24 +2097,12 @@
       <c r="F64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2">
@@ -2891,24 +2123,12 @@
       <c r="F65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2">
@@ -2929,24 +2149,12 @@
       <c r="F66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2">
@@ -2967,24 +2175,12 @@
       <c r="F67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3">
-        <v>0</v>
-      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2">
@@ -3005,24 +2201,12 @@
       <c r="F68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="3">
-        <v>0</v>
-      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2">
@@ -3043,24 +2227,12 @@
       <c r="F69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2">
@@ -3081,24 +2253,12 @@
       <c r="F70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2">
@@ -3119,24 +2279,12 @@
       <c r="F71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0</v>
-      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2">
@@ -3157,24 +2305,12 @@
       <c r="F72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2">
@@ -3195,24 +2331,12 @@
       <c r="F73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="3">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0</v>
-      </c>
-      <c r="I73" s="3">
-        <v>1</v>
-      </c>
-      <c r="J73" s="3">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>0</v>
-      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2">
@@ -3233,24 +2357,12 @@
       <c r="F74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="3">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3">
-        <v>0</v>
-      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2">
@@ -3271,24 +2383,12 @@
       <c r="F75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="3">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="I75" s="3">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3">
-        <v>0</v>
-      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2">
@@ -3309,24 +2409,12 @@
       <c r="F76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2">
@@ -3347,24 +2435,12 @@
       <c r="F77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
-      <c r="L77" s="3">
-        <v>0</v>
-      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2">
@@ -3385,24 +2461,12 @@
       <c r="F78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
-      <c r="L78" s="3">
-        <v>0</v>
-      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2">
@@ -3423,24 +2487,12 @@
       <c r="F79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <v>1</v>
-      </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
-      <c r="L79" s="3">
-        <v>0</v>
-      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2">
@@ -3461,24 +2513,12 @@
       <c r="F80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <v>0</v>
-      </c>
-      <c r="I80" s="3">
-        <v>1</v>
-      </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3">
-        <v>0</v>
-      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2">
@@ -3499,24 +2539,12 @@
       <c r="F81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2">
@@ -3537,24 +2565,12 @@
       <c r="F82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="3">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <v>0</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3">
-        <v>0</v>
-      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2">
@@ -3575,24 +2591,12 @@
       <c r="F83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2">
@@ -3613,24 +2617,12 @@
       <c r="F84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>1</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>0</v>
-      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2">
@@ -3651,24 +2643,12 @@
       <c r="F85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3">
-        <v>1</v>
-      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2">
@@ -3689,24 +2669,12 @@
       <c r="F86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2">
@@ -3727,24 +2695,12 @@
       <c r="F87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3">
-        <v>1</v>
-      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2">
@@ -3765,24 +2721,12 @@
       <c r="F88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
-        <v>0</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2">
@@ -3803,24 +2747,12 @@
       <c r="F89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2">
@@ -3841,24 +2773,12 @@
       <c r="F90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3">
-        <v>1</v>
-      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2">
@@ -3879,24 +2799,12 @@
       <c r="F91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>1</v>
-      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2">
@@ -3917,24 +2825,12 @@
       <c r="F92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
-        <v>0</v>
-      </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3">
-        <v>0</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2">
@@ -3955,24 +2851,12 @@
       <c r="F93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <v>0</v>
-      </c>
-      <c r="I93" s="3">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3">
-        <v>0</v>
-      </c>
-      <c r="L93" s="3">
-        <v>1</v>
-      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2">
@@ -3993,24 +2877,12 @@
       <c r="F94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1</v>
-      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2">
@@ -4031,24 +2903,12 @@
       <c r="F95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
-      <c r="H95" s="3">
-        <v>0</v>
-      </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3">
-        <v>0</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0</v>
-      </c>
-      <c r="L95" s="3">
-        <v>1</v>
-      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2">
@@ -4069,24 +2929,12 @@
       <c r="F96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2">
@@ -4107,24 +2955,12 @@
       <c r="F97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3">
-        <v>0</v>
-      </c>
-      <c r="L97" s="3">
-        <v>1</v>
-      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2">
@@ -4145,24 +2981,12 @@
       <c r="F98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0</v>
-      </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3">
-        <v>1</v>
-      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2">
@@ -4183,24 +3007,12 @@
       <c r="F99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G99" s="3">
-        <v>0</v>
-      </c>
-      <c r="H99" s="3">
-        <v>0</v>
-      </c>
-      <c r="I99" s="3">
-        <v>0</v>
-      </c>
-      <c r="J99" s="3">
-        <v>0</v>
-      </c>
-      <c r="K99" s="3">
-        <v>0</v>
-      </c>
-      <c r="L99" s="3">
-        <v>1</v>
-      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2">
@@ -4221,24 +3033,12 @@
       <c r="F100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2">
@@ -4259,24 +3059,12 @@
       <c r="F101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1</v>
-      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2">
@@ -4297,24 +3085,12 @@
       <c r="F102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1</v>
-      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="3">
@@ -4335,24 +3111,12 @@
       <c r="F103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="3">
-        <v>0</v>
-      </c>
-      <c r="I103" s="3">
-        <v>0</v>
-      </c>
-      <c r="J103" s="3">
-        <v>0</v>
-      </c>
-      <c r="K103" s="3">
-        <v>0</v>
-      </c>
-      <c r="L103" s="3">
-        <v>1</v>
-      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="3">
@@ -4373,24 +3137,12 @@
       <c r="F104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
-      <c r="H104" s="3">
-        <v>0</v>
-      </c>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" s="3">
-        <v>0</v>
-      </c>
-      <c r="K104" s="3">
-        <v>0</v>
-      </c>
-      <c r="L104" s="3">
-        <v>1</v>
-      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="3">
@@ -4411,24 +3163,12 @@
       <c r="F105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="3">
-        <v>0</v>
-      </c>
-      <c r="H105" s="3">
-        <v>0</v>
-      </c>
-      <c r="I105" s="3">
-        <v>1</v>
-      </c>
-      <c r="J105" s="3">
-        <v>0</v>
-      </c>
-      <c r="K105" s="3">
-        <v>0</v>
-      </c>
-      <c r="L105" s="3">
-        <v>0</v>
-      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="3">
@@ -4449,24 +3189,12 @@
       <c r="F106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="3">
-        <v>0</v>
-      </c>
-      <c r="H106" s="3">
-        <v>0</v>
-      </c>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="3">
-        <v>0</v>
-      </c>
-      <c r="K106" s="3">
-        <v>1</v>
-      </c>
-      <c r="L106" s="3">
-        <v>0</v>
-      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="3">
@@ -4487,24 +3215,12 @@
       <c r="F107" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="3">
-        <v>0</v>
-      </c>
-      <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
-      <c r="J107" s="3">
-        <v>0</v>
-      </c>
-      <c r="K107" s="3">
-        <v>1</v>
-      </c>
-      <c r="L107" s="3">
-        <v>0</v>
-      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="3">
@@ -4525,24 +3241,12 @@
       <c r="F108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="3">
-        <v>0</v>
-      </c>
-      <c r="H108" s="3">
-        <v>0</v>
-      </c>
-      <c r="I108" s="3">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3">
-        <v>0</v>
-      </c>
-      <c r="K108" s="3">
-        <v>0</v>
-      </c>
-      <c r="L108" s="3">
-        <v>1</v>
-      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="3">
@@ -4563,24 +3267,12 @@
       <c r="F109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G109" s="3">
-        <v>0</v>
-      </c>
-      <c r="H109" s="3">
-        <v>0</v>
-      </c>
-      <c r="I109" s="3">
-        <v>0</v>
-      </c>
-      <c r="J109" s="3">
-        <v>0</v>
-      </c>
-      <c r="K109" s="3">
-        <v>0</v>
-      </c>
-      <c r="L109" s="3">
-        <v>1</v>
-      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="3">
@@ -4601,24 +3293,12 @@
       <c r="F110" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="3">
-        <v>0</v>
-      </c>
-      <c r="H110" s="3">
-        <v>0</v>
-      </c>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="3">
-        <v>1</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
-      <c r="L110" s="3">
-        <v>0</v>
-      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="3">
@@ -4639,24 +3319,12 @@
       <c r="F111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="3">
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111" s="3">
-        <v>1</v>
-      </c>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
-      <c r="K111" s="3">
-        <v>0</v>
-      </c>
-      <c r="L111" s="3">
-        <v>0</v>
-      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="3">
@@ -4677,24 +3345,12 @@
       <c r="F112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G112" s="3">
-        <v>0</v>
-      </c>
-      <c r="H112" s="3">
-        <v>0</v>
-      </c>
-      <c r="I112" s="3">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3">
-        <v>0</v>
-      </c>
-      <c r="K112" s="3">
-        <v>0</v>
-      </c>
-      <c r="L112" s="3">
-        <v>1</v>
-      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="3">
@@ -4715,24 +3371,12 @@
       <c r="F113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="3">
-        <v>0</v>
-      </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-      <c r="I113" s="3">
-        <v>0</v>
-      </c>
-      <c r="J113" s="3">
-        <v>1</v>
-      </c>
-      <c r="K113" s="3">
-        <v>0</v>
-      </c>
-      <c r="L113" s="3">
-        <v>0</v>
-      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="3">
@@ -4753,24 +3397,12 @@
       <c r="F114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="3">
-        <v>0</v>
-      </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <v>0</v>
-      </c>
-      <c r="K114" s="3">
-        <v>0</v>
-      </c>
-      <c r="L114" s="3">
-        <v>1</v>
-      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="3">
@@ -4791,24 +3423,12 @@
       <c r="F115" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G115" s="3">
-        <v>0</v>
-      </c>
-      <c r="H115" s="3">
-        <v>1</v>
-      </c>
-      <c r="I115" s="3">
-        <v>0</v>
-      </c>
-      <c r="J115" s="3">
-        <v>0</v>
-      </c>
-      <c r="K115" s="3">
-        <v>0</v>
-      </c>
-      <c r="L115" s="3">
-        <v>0</v>
-      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="3">
@@ -4829,24 +3449,12 @@
       <c r="F116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="3">
-        <v>0</v>
-      </c>
-      <c r="I116" s="3">
-        <v>0</v>
-      </c>
-      <c r="J116" s="3">
-        <v>0</v>
-      </c>
-      <c r="K116" s="3">
-        <v>0</v>
-      </c>
-      <c r="L116" s="3">
-        <v>1</v>
-      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="3">
@@ -4867,24 +3475,12 @@
       <c r="F117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0</v>
-      </c>
-      <c r="J117" s="3">
-        <v>0</v>
-      </c>
-      <c r="K117" s="3">
-        <v>0</v>
-      </c>
-      <c r="L117" s="3">
-        <v>1</v>
-      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="3">
@@ -4905,24 +3501,12 @@
       <c r="F118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="3">
-        <v>1</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3">
-        <v>0</v>
-      </c>
-      <c r="K118" s="3">
-        <v>0</v>
-      </c>
-      <c r="L118" s="3">
-        <v>0</v>
-      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="3">
@@ -4943,24 +3527,12 @@
       <c r="F119" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="3">
-        <v>1</v>
-      </c>
-      <c r="H119" s="3">
-        <v>0</v>
-      </c>
-      <c r="I119" s="3">
-        <v>0</v>
-      </c>
-      <c r="J119" s="3">
-        <v>0</v>
-      </c>
-      <c r="K119" s="3">
-        <v>0</v>
-      </c>
-      <c r="L119" s="3">
-        <v>0</v>
-      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="3">
@@ -4981,24 +3553,12 @@
       <c r="F120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G120" s="3">
-        <v>0</v>
-      </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-      <c r="I120" s="3">
-        <v>0</v>
-      </c>
-      <c r="J120" s="3">
-        <v>0</v>
-      </c>
-      <c r="K120" s="3">
-        <v>0</v>
-      </c>
-      <c r="L120" s="3">
-        <v>1</v>
-      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="3">
@@ -5019,24 +3579,12 @@
       <c r="F121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="3">
-        <v>0</v>
-      </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="I121" s="3">
-        <v>0</v>
-      </c>
-      <c r="J121" s="3">
-        <v>0</v>
-      </c>
-      <c r="K121" s="3">
-        <v>0</v>
-      </c>
-      <c r="L121" s="3">
-        <v>1</v>
-      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="3">
@@ -5057,24 +3605,12 @@
       <c r="F122" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G122" s="3">
-        <v>0</v>
-      </c>
-      <c r="H122" s="3">
-        <v>1</v>
-      </c>
-      <c r="I122" s="3">
-        <v>0</v>
-      </c>
-      <c r="J122" s="3">
-        <v>0</v>
-      </c>
-      <c r="K122" s="3">
-        <v>0</v>
-      </c>
-      <c r="L122" s="3">
-        <v>0</v>
-      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="3">
@@ -5095,24 +3631,12 @@
       <c r="F123" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G123" s="3">
-        <v>0</v>
-      </c>
-      <c r="H123" s="3">
-        <v>1</v>
-      </c>
-      <c r="I123" s="3">
-        <v>0</v>
-      </c>
-      <c r="J123" s="3">
-        <v>0</v>
-      </c>
-      <c r="K123" s="3">
-        <v>0</v>
-      </c>
-      <c r="L123" s="3">
-        <v>0</v>
-      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="3">
@@ -5133,24 +3657,12 @@
       <c r="F124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G124" s="3">
-        <v>0</v>
-      </c>
-      <c r="H124" s="3">
-        <v>0</v>
-      </c>
-      <c r="I124" s="3">
-        <v>0</v>
-      </c>
-      <c r="J124" s="3">
-        <v>0</v>
-      </c>
-      <c r="K124" s="3">
-        <v>0</v>
-      </c>
-      <c r="L124" s="3">
-        <v>1</v>
-      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="3">
@@ -5171,24 +3683,12 @@
       <c r="F125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="3">
-        <v>0</v>
-      </c>
-      <c r="H125" s="3">
-        <v>0</v>
-      </c>
-      <c r="I125" s="3">
-        <v>1</v>
-      </c>
-      <c r="J125" s="3">
-        <v>0</v>
-      </c>
-      <c r="K125" s="3">
-        <v>0</v>
-      </c>
-      <c r="L125" s="3">
-        <v>0</v>
-      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="3">
@@ -5209,24 +3709,12 @@
       <c r="F126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G126" s="3">
-        <v>0</v>
-      </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="I126" s="3">
-        <v>0</v>
-      </c>
-      <c r="J126" s="3">
-        <v>0</v>
-      </c>
-      <c r="K126" s="3">
-        <v>0</v>
-      </c>
-      <c r="L126" s="3">
-        <v>1</v>
-      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="3">
@@ -5247,24 +3735,12 @@
       <c r="F127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G127" s="3">
-        <v>0</v>
-      </c>
-      <c r="H127" s="3">
-        <v>0</v>
-      </c>
-      <c r="I127" s="3">
-        <v>0</v>
-      </c>
-      <c r="J127" s="3">
-        <v>0</v>
-      </c>
-      <c r="K127" s="3">
-        <v>0</v>
-      </c>
-      <c r="L127" s="3">
-        <v>1</v>
-      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="3">
@@ -5285,24 +3761,12 @@
       <c r="F128" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="3">
-        <v>0</v>
-      </c>
-      <c r="H128" s="3">
-        <v>1</v>
-      </c>
-      <c r="I128" s="3">
-        <v>0</v>
-      </c>
-      <c r="J128" s="3">
-        <v>0</v>
-      </c>
-      <c r="K128" s="3">
-        <v>0</v>
-      </c>
-      <c r="L128" s="3">
-        <v>0</v>
-      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="3">
@@ -5323,24 +3787,12 @@
       <c r="F129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="3">
-        <v>0</v>
-      </c>
-      <c r="I129" s="3">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3">
-        <v>0</v>
-      </c>
-      <c r="K129" s="3">
-        <v>0</v>
-      </c>
-      <c r="L129" s="3">
-        <v>1</v>
-      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="3">
@@ -5361,24 +3813,12 @@
       <c r="F130" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G130" s="3">
-        <v>0</v>
-      </c>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-      <c r="I130" s="3">
-        <v>0</v>
-      </c>
-      <c r="J130" s="3">
-        <v>0</v>
-      </c>
-      <c r="K130" s="3">
-        <v>0</v>
-      </c>
-      <c r="L130" s="3">
-        <v>0</v>
-      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2">
@@ -5399,24 +3839,12 @@
       <c r="F131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="3">
-        <v>0</v>
-      </c>
-      <c r="I131" s="3">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3">
-        <v>0</v>
-      </c>
-      <c r="K131" s="3">
-        <v>0</v>
-      </c>
-      <c r="L131" s="3">
-        <v>1</v>
-      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2">
@@ -5437,24 +3865,12 @@
       <c r="F132" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3">
-        <v>0</v>
-      </c>
-      <c r="I132" s="3">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3">
-        <v>0</v>
-      </c>
-      <c r="K132" s="3">
-        <v>1</v>
-      </c>
-      <c r="L132" s="3">
-        <v>0</v>
-      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2">
@@ -5475,24 +3891,12 @@
       <c r="F133" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="3">
-        <v>0</v>
-      </c>
-      <c r="I133" s="3">
-        <v>0</v>
-      </c>
-      <c r="J133" s="3">
-        <v>1</v>
-      </c>
-      <c r="K133" s="3">
-        <v>0</v>
-      </c>
-      <c r="L133" s="3">
-        <v>0</v>
-      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2">
@@ -5513,24 +3917,12 @@
       <c r="F134" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="3">
-        <v>0</v>
-      </c>
-      <c r="I134" s="3">
-        <v>0</v>
-      </c>
-      <c r="J134" s="3">
-        <v>1</v>
-      </c>
-      <c r="K134" s="3">
-        <v>0</v>
-      </c>
-      <c r="L134" s="3">
-        <v>0</v>
-      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2">
@@ -5551,24 +3943,12 @@
       <c r="F135" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="3">
-        <v>0</v>
-      </c>
-      <c r="I135" s="3">
-        <v>0</v>
-      </c>
-      <c r="J135" s="3">
-        <v>1</v>
-      </c>
-      <c r="K135" s="3">
-        <v>0</v>
-      </c>
-      <c r="L135" s="3">
-        <v>0</v>
-      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2">
@@ -5589,24 +3969,12 @@
       <c r="F136" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G136" s="3">
-        <v>0</v>
-      </c>
-      <c r="H136" s="3">
-        <v>0</v>
-      </c>
-      <c r="I136" s="3">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3">
-        <v>1</v>
-      </c>
-      <c r="K136" s="3">
-        <v>0</v>
-      </c>
-      <c r="L136" s="3">
-        <v>0</v>
-      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2">
@@ -5627,24 +3995,12 @@
       <c r="F137" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="3">
-        <v>0</v>
-      </c>
-      <c r="I137" s="3">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3">
-        <v>1</v>
-      </c>
-      <c r="K137" s="3">
-        <v>0</v>
-      </c>
-      <c r="L137" s="3">
-        <v>0</v>
-      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2">
@@ -5665,24 +4021,12 @@
       <c r="F138" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="3">
-        <v>0</v>
-      </c>
-      <c r="I138" s="3">
-        <v>0</v>
-      </c>
-      <c r="J138" s="3">
-        <v>1</v>
-      </c>
-      <c r="K138" s="3">
-        <v>0</v>
-      </c>
-      <c r="L138" s="3">
-        <v>0</v>
-      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2">
@@ -5703,24 +4047,12 @@
       <c r="F139" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="3">
-        <v>0</v>
-      </c>
-      <c r="I139" s="3">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3">
-        <v>1</v>
-      </c>
-      <c r="K139" s="3">
-        <v>0</v>
-      </c>
-      <c r="L139" s="3">
-        <v>0</v>
-      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2">
@@ -5741,24 +4073,12 @@
       <c r="F140" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="3">
-        <v>0</v>
-      </c>
-      <c r="I140" s="3">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3">
-        <v>1</v>
-      </c>
-      <c r="K140" s="3">
-        <v>0</v>
-      </c>
-      <c r="L140" s="3">
-        <v>0</v>
-      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2">
@@ -5779,24 +4099,12 @@
       <c r="F141" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="3">
-        <v>0</v>
-      </c>
-      <c r="I141" s="3">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3">
-        <v>1</v>
-      </c>
-      <c r="K141" s="3">
-        <v>0</v>
-      </c>
-      <c r="L141" s="3">
-        <v>0</v>
-      </c>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2">
@@ -5817,24 +4125,12 @@
       <c r="F142" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="3">
-        <v>0</v>
-      </c>
-      <c r="I142" s="3">
-        <v>0</v>
-      </c>
-      <c r="J142" s="3">
-        <v>1</v>
-      </c>
-      <c r="K142" s="3">
-        <v>0</v>
-      </c>
-      <c r="L142" s="3">
-        <v>0</v>
-      </c>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2">
@@ -5855,24 +4151,12 @@
       <c r="F143" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="3">
-        <v>0</v>
-      </c>
-      <c r="I143" s="3">
-        <v>0</v>
-      </c>
-      <c r="J143" s="3">
-        <v>0</v>
-      </c>
-      <c r="K143" s="3">
-        <v>0</v>
-      </c>
-      <c r="L143" s="3">
-        <v>1</v>
-      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2">
@@ -5893,24 +4177,12 @@
       <c r="F144" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3">
-        <v>0</v>
-      </c>
-      <c r="I144" s="3">
-        <v>0</v>
-      </c>
-      <c r="J144" s="3">
-        <v>0</v>
-      </c>
-      <c r="K144" s="3">
-        <v>1</v>
-      </c>
-      <c r="L144" s="3">
-        <v>0</v>
-      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="2">
@@ -5931,24 +4203,12 @@
       <c r="F145" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="3">
-        <v>0</v>
-      </c>
-      <c r="I145" s="3">
-        <v>0</v>
-      </c>
-      <c r="J145" s="3">
-        <v>0</v>
-      </c>
-      <c r="K145" s="3">
-        <v>1</v>
-      </c>
-      <c r="L145" s="3">
-        <v>0</v>
-      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2">
@@ -5969,24 +4229,12 @@
       <c r="F146" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
-        <v>0</v>
-      </c>
-      <c r="I146" s="3">
-        <v>0</v>
-      </c>
-      <c r="J146" s="3">
-        <v>1</v>
-      </c>
-      <c r="K146" s="3">
-        <v>0</v>
-      </c>
-      <c r="L146" s="3">
-        <v>0</v>
-      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2">
@@ -6007,24 +4255,12 @@
       <c r="F147" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="3">
-        <v>0</v>
-      </c>
-      <c r="I147" s="3">
-        <v>0</v>
-      </c>
-      <c r="J147" s="3">
-        <v>1</v>
-      </c>
-      <c r="K147" s="3">
-        <v>0</v>
-      </c>
-      <c r="L147" s="3">
-        <v>0</v>
-      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2">
@@ -6045,24 +4281,12 @@
       <c r="F148" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="3">
-        <v>0</v>
-      </c>
-      <c r="I148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148" s="3">
-        <v>1</v>
-      </c>
-      <c r="K148" s="3">
-        <v>0</v>
-      </c>
-      <c r="L148" s="3">
-        <v>0</v>
-      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="2">
@@ -6083,24 +4307,12 @@
       <c r="F149" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="3">
-        <v>0</v>
-      </c>
-      <c r="I149" s="3">
-        <v>0</v>
-      </c>
-      <c r="J149" s="3">
-        <v>1</v>
-      </c>
-      <c r="K149" s="3">
-        <v>0</v>
-      </c>
-      <c r="L149" s="3">
-        <v>0</v>
-      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="2">
@@ -6121,24 +4333,12 @@
       <c r="F150" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="3">
-        <v>0</v>
-      </c>
-      <c r="I150" s="3">
-        <v>0</v>
-      </c>
-      <c r="J150" s="3">
-        <v>1</v>
-      </c>
-      <c r="K150" s="3">
-        <v>0</v>
-      </c>
-      <c r="L150" s="3">
-        <v>0</v>
-      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="2">
@@ -6159,24 +4359,12 @@
       <c r="F151" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="3">
-        <v>0</v>
-      </c>
-      <c r="I151" s="3">
-        <v>0</v>
-      </c>
-      <c r="J151" s="3">
-        <v>1</v>
-      </c>
-      <c r="K151" s="3">
-        <v>0</v>
-      </c>
-      <c r="L151" s="3">
-        <v>0</v>
-      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="2">
@@ -6197,24 +4385,12 @@
       <c r="F152" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="3">
-        <v>0</v>
-      </c>
-      <c r="I152" s="3">
-        <v>0</v>
-      </c>
-      <c r="J152" s="3">
-        <v>1</v>
-      </c>
-      <c r="K152" s="3">
-        <v>0</v>
-      </c>
-      <c r="L152" s="3">
-        <v>0</v>
-      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="2">
@@ -6235,24 +4411,12 @@
       <c r="F153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G153" s="3">
-        <v>1</v>
-      </c>
-      <c r="H153" s="3">
-        <v>0</v>
-      </c>
-      <c r="I153" s="3">
-        <v>0</v>
-      </c>
-      <c r="J153" s="3">
-        <v>0</v>
-      </c>
-      <c r="K153" s="3">
-        <v>0</v>
-      </c>
-      <c r="L153" s="3">
-        <v>0</v>
-      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="2">
@@ -6273,24 +4437,12 @@
       <c r="F154" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G154" s="3">
-        <v>1</v>
-      </c>
-      <c r="H154" s="3">
-        <v>0</v>
-      </c>
-      <c r="I154" s="3">
-        <v>0</v>
-      </c>
-      <c r="J154" s="3">
-        <v>0</v>
-      </c>
-      <c r="K154" s="3">
-        <v>0</v>
-      </c>
-      <c r="L154" s="3">
-        <v>0</v>
-      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="2">
@@ -6311,24 +4463,12 @@
       <c r="F155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G155" s="3">
-        <v>1</v>
-      </c>
-      <c r="H155" s="3">
-        <v>0</v>
-      </c>
-      <c r="I155" s="3">
-        <v>0</v>
-      </c>
-      <c r="J155" s="3">
-        <v>0</v>
-      </c>
-      <c r="K155" s="3">
-        <v>0</v>
-      </c>
-      <c r="L155" s="3">
-        <v>0</v>
-      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="2">
@@ -6349,24 +4489,12 @@
       <c r="F156" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G156" s="3">
-        <v>1</v>
-      </c>
-      <c r="H156" s="3">
-        <v>0</v>
-      </c>
-      <c r="I156" s="3">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3">
-        <v>0</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0</v>
-      </c>
-      <c r="L156" s="3">
-        <v>0</v>
-      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="2">
@@ -6387,24 +4515,12 @@
       <c r="F157" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G157" s="3">
-        <v>1</v>
-      </c>
-      <c r="H157" s="3">
-        <v>0</v>
-      </c>
-      <c r="I157" s="3">
-        <v>0</v>
-      </c>
-      <c r="J157" s="3">
-        <v>0</v>
-      </c>
-      <c r="K157" s="3">
-        <v>0</v>
-      </c>
-      <c r="L157" s="3">
-        <v>0</v>
-      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="2">
@@ -6425,24 +4541,12 @@
       <c r="F158" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G158" s="3">
-        <v>1</v>
-      </c>
-      <c r="H158" s="3">
-        <v>0</v>
-      </c>
-      <c r="I158" s="3">
-        <v>0</v>
-      </c>
-      <c r="J158" s="3">
-        <v>0</v>
-      </c>
-      <c r="K158" s="3">
-        <v>0</v>
-      </c>
-      <c r="L158" s="3">
-        <v>0</v>
-      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="2">
@@ -6463,24 +4567,12 @@
       <c r="F159" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="3">
-        <v>0</v>
-      </c>
-      <c r="J159" s="3">
-        <v>0</v>
-      </c>
-      <c r="K159" s="3">
-        <v>0</v>
-      </c>
-      <c r="L159" s="3">
-        <v>0</v>
-      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="2">
@@ -6501,24 +4593,12 @@
       <c r="F160" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="3">
-        <v>1</v>
-      </c>
-      <c r="I160" s="3">
-        <v>0</v>
-      </c>
-      <c r="J160" s="3">
-        <v>0</v>
-      </c>
-      <c r="K160" s="3">
-        <v>0</v>
-      </c>
-      <c r="L160" s="3">
-        <v>0</v>
-      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="2">
@@ -6539,24 +4619,12 @@
       <c r="F161" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-      <c r="I161" s="3">
-        <v>0</v>
-      </c>
-      <c r="J161" s="3">
-        <v>0</v>
-      </c>
-      <c r="K161" s="3">
-        <v>0</v>
-      </c>
-      <c r="L161" s="3">
-        <v>0</v>
-      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="2">
@@ -6577,24 +4645,12 @@
       <c r="F162" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="I162" s="3">
-        <v>0</v>
-      </c>
-      <c r="J162" s="3">
-        <v>0</v>
-      </c>
-      <c r="K162" s="3">
-        <v>0</v>
-      </c>
-      <c r="L162" s="3">
-        <v>0</v>
-      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="2">
@@ -6615,24 +4671,12 @@
       <c r="F163" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-      <c r="I163" s="3">
-        <v>0</v>
-      </c>
-      <c r="J163" s="3">
-        <v>0</v>
-      </c>
-      <c r="K163" s="3">
-        <v>0</v>
-      </c>
-      <c r="L163" s="3">
-        <v>0</v>
-      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="2">
@@ -6653,24 +4697,12 @@
       <c r="F164" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G164" s="3">
-        <v>0</v>
-      </c>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
-      <c r="I164" s="3">
-        <v>0</v>
-      </c>
-      <c r="J164" s="3">
-        <v>0</v>
-      </c>
-      <c r="K164" s="3">
-        <v>0</v>
-      </c>
-      <c r="L164" s="3">
-        <v>0</v>
-      </c>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="2">
@@ -6691,24 +4723,12 @@
       <c r="F165" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="3">
-        <v>0</v>
-      </c>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3">
-        <v>0</v>
-      </c>
-      <c r="J165" s="3">
-        <v>0</v>
-      </c>
-      <c r="K165" s="3">
-        <v>0</v>
-      </c>
-      <c r="L165" s="3">
-        <v>0</v>
-      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="2">
@@ -6729,24 +4749,12 @@
       <c r="F166" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G166" s="3">
-        <v>0</v>
-      </c>
-      <c r="H166" s="3">
-        <v>1</v>
-      </c>
-      <c r="I166" s="3">
-        <v>0</v>
-      </c>
-      <c r="J166" s="3">
-        <v>0</v>
-      </c>
-      <c r="K166" s="3">
-        <v>0</v>
-      </c>
-      <c r="L166" s="3">
-        <v>0</v>
-      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="2">
@@ -6767,24 +4775,12 @@
       <c r="F167" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="3">
-        <v>0</v>
-      </c>
-      <c r="J167" s="3">
-        <v>0</v>
-      </c>
-      <c r="K167" s="3">
-        <v>0</v>
-      </c>
-      <c r="L167" s="3">
-        <v>0</v>
-      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="2">
@@ -6805,24 +4801,12 @@
       <c r="F168" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="3">
-        <v>1</v>
-      </c>
-      <c r="I168" s="3">
-        <v>0</v>
-      </c>
-      <c r="J168" s="3">
-        <v>0</v>
-      </c>
-      <c r="K168" s="3">
-        <v>0</v>
-      </c>
-      <c r="L168" s="3">
-        <v>0</v>
-      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="2">
@@ -6843,24 +4827,12 @@
       <c r="F169" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="3">
-        <v>0</v>
-      </c>
-      <c r="I169" s="3">
-        <v>1</v>
-      </c>
-      <c r="J169" s="3">
-        <v>0</v>
-      </c>
-      <c r="K169" s="3">
-        <v>0</v>
-      </c>
-      <c r="L169" s="3">
-        <v>0</v>
-      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="2">
@@ -6881,24 +4853,12 @@
       <c r="F170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G170" s="3">
-        <v>0</v>
-      </c>
-      <c r="H170" s="3">
-        <v>0</v>
-      </c>
-      <c r="I170" s="3">
-        <v>0</v>
-      </c>
-      <c r="J170" s="3">
-        <v>0</v>
-      </c>
-      <c r="K170" s="3">
-        <v>0</v>
-      </c>
-      <c r="L170" s="3">
-        <v>1</v>
-      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="2">
@@ -6919,24 +4879,12 @@
       <c r="F171" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="3">
-        <v>0</v>
-      </c>
-      <c r="I171" s="3">
-        <v>0</v>
-      </c>
-      <c r="J171" s="3">
-        <v>0</v>
-      </c>
-      <c r="K171" s="3">
-        <v>1</v>
-      </c>
-      <c r="L171" s="3">
-        <v>0</v>
-      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="2">
@@ -6957,24 +4905,12 @@
       <c r="F172" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="3">
-        <v>0</v>
-      </c>
-      <c r="I172" s="3">
-        <v>0</v>
-      </c>
-      <c r="J172" s="3">
-        <v>0</v>
-      </c>
-      <c r="K172" s="3">
-        <v>1</v>
-      </c>
-      <c r="L172" s="3">
-        <v>0</v>
-      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="2">
@@ -6995,24 +4931,12 @@
       <c r="F173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="3">
-        <v>0</v>
-      </c>
-      <c r="I173" s="3">
-        <v>0</v>
-      </c>
-      <c r="J173" s="3">
-        <v>0</v>
-      </c>
-      <c r="K173" s="3">
-        <v>0</v>
-      </c>
-      <c r="L173" s="3">
-        <v>1</v>
-      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="2">
@@ -7033,24 +4957,12 @@
       <c r="F174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="3">
-        <v>0</v>
-      </c>
-      <c r="I174" s="3">
-        <v>0</v>
-      </c>
-      <c r="J174" s="3">
-        <v>0</v>
-      </c>
-      <c r="K174" s="3">
-        <v>0</v>
-      </c>
-      <c r="L174" s="3">
-        <v>1</v>
-      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="2">
@@ -7071,24 +4983,12 @@
       <c r="F175" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="3">
-        <v>0</v>
-      </c>
-      <c r="I175" s="3">
-        <v>0</v>
-      </c>
-      <c r="J175" s="3">
-        <v>0</v>
-      </c>
-      <c r="K175" s="3">
-        <v>1</v>
-      </c>
-      <c r="L175" s="3">
-        <v>0</v>
-      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="2">
@@ -7109,24 +5009,12 @@
       <c r="F176" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="3">
-        <v>0</v>
-      </c>
-      <c r="I176" s="3">
-        <v>0</v>
-      </c>
-      <c r="J176" s="3">
-        <v>0</v>
-      </c>
-      <c r="K176" s="3">
-        <v>1</v>
-      </c>
-      <c r="L176" s="3">
-        <v>0</v>
-      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="2">
@@ -7147,24 +5035,12 @@
       <c r="F177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="3">
-        <v>0</v>
-      </c>
-      <c r="I177" s="3">
-        <v>0</v>
-      </c>
-      <c r="J177" s="3">
-        <v>0</v>
-      </c>
-      <c r="K177" s="3">
-        <v>0</v>
-      </c>
-      <c r="L177" s="3">
-        <v>1</v>
-      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="2">
@@ -7185,24 +5061,12 @@
       <c r="F178" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="3">
-        <v>0</v>
-      </c>
-      <c r="I178" s="3">
-        <v>1</v>
-      </c>
-      <c r="J178" s="3">
-        <v>0</v>
-      </c>
-      <c r="K178" s="3">
-        <v>0</v>
-      </c>
-      <c r="L178" s="3">
-        <v>0</v>
-      </c>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="2">
@@ -7223,24 +5087,12 @@
       <c r="F179" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="3">
-        <v>0</v>
-      </c>
-      <c r="J179" s="3">
-        <v>0</v>
-      </c>
-      <c r="K179" s="3">
-        <v>0</v>
-      </c>
-      <c r="L179" s="3">
-        <v>0</v>
-      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="2">
@@ -7261,24 +5113,12 @@
       <c r="F180" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="3">
-        <v>1</v>
-      </c>
-      <c r="I180" s="3">
-        <v>0</v>
-      </c>
-      <c r="J180" s="3">
-        <v>0</v>
-      </c>
-      <c r="K180" s="3">
-        <v>0</v>
-      </c>
-      <c r="L180" s="3">
-        <v>0</v>
-      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="2">
@@ -7299,24 +5139,12 @@
       <c r="F181" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
-      <c r="I181" s="3">
-        <v>0</v>
-      </c>
-      <c r="J181" s="3">
-        <v>0</v>
-      </c>
-      <c r="K181" s="3">
-        <v>0</v>
-      </c>
-      <c r="L181" s="3">
-        <v>0</v>
-      </c>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="2">
@@ -7337,24 +5165,12 @@
       <c r="F182" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="3">
-        <v>1</v>
-      </c>
-      <c r="I182" s="3">
-        <v>0</v>
-      </c>
-      <c r="J182" s="3">
-        <v>0</v>
-      </c>
-      <c r="K182" s="3">
-        <v>0</v>
-      </c>
-      <c r="L182" s="3">
-        <v>0</v>
-      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="2">
@@ -7375,24 +5191,12 @@
       <c r="F183" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="3">
-        <v>1</v>
-      </c>
-      <c r="I183" s="3">
-        <v>0</v>
-      </c>
-      <c r="J183" s="3">
-        <v>0</v>
-      </c>
-      <c r="K183" s="3">
-        <v>0</v>
-      </c>
-      <c r="L183" s="3">
-        <v>0</v>
-      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="2">
@@ -7413,24 +5217,12 @@
       <c r="F184" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="I184" s="3">
-        <v>0</v>
-      </c>
-      <c r="J184" s="3">
-        <v>0</v>
-      </c>
-      <c r="K184" s="3">
-        <v>0</v>
-      </c>
-      <c r="L184" s="3">
-        <v>0</v>
-      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="2">
@@ -7451,24 +5243,12 @@
       <c r="F185" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="3">
-        <v>1</v>
-      </c>
-      <c r="I185" s="3">
-        <v>0</v>
-      </c>
-      <c r="J185" s="3">
-        <v>0</v>
-      </c>
-      <c r="K185" s="3">
-        <v>0</v>
-      </c>
-      <c r="L185" s="3">
-        <v>0</v>
-      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="2">
@@ -7489,24 +5269,12 @@
       <c r="F186" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="3">
-        <v>0</v>
-      </c>
-      <c r="I186" s="3">
-        <v>1</v>
-      </c>
-      <c r="J186" s="3">
-        <v>0</v>
-      </c>
-      <c r="K186" s="3">
-        <v>0</v>
-      </c>
-      <c r="L186" s="3">
-        <v>0</v>
-      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="2">
@@ -7527,24 +5295,12 @@
       <c r="F187" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="3">
-        <v>0</v>
-      </c>
-      <c r="I187" s="3">
-        <v>0</v>
-      </c>
-      <c r="J187" s="3">
-        <v>1</v>
-      </c>
-      <c r="K187" s="3">
-        <v>1</v>
-      </c>
-      <c r="L187" s="3">
-        <v>0</v>
-      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="2">
@@ -7565,24 +5321,12 @@
       <c r="F188" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="3">
-        <v>0</v>
-      </c>
-      <c r="I188" s="3">
-        <v>0</v>
-      </c>
-      <c r="J188" s="3">
-        <v>1</v>
-      </c>
-      <c r="K188" s="3">
-        <v>1</v>
-      </c>
-      <c r="L188" s="3">
-        <v>0</v>
-      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="2">
@@ -7603,24 +5347,12 @@
       <c r="F189" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="3">
-        <v>0</v>
-      </c>
-      <c r="I189" s="3">
-        <v>0</v>
-      </c>
-      <c r="J189" s="3">
-        <v>1</v>
-      </c>
-      <c r="K189" s="3">
-        <v>1</v>
-      </c>
-      <c r="L189" s="3">
-        <v>0</v>
-      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="2">
@@ -7641,24 +5373,12 @@
       <c r="F190" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="3">
-        <v>0</v>
-      </c>
-      <c r="I190" s="3">
-        <v>0</v>
-      </c>
-      <c r="J190" s="3">
-        <v>1</v>
-      </c>
-      <c r="K190" s="3">
-        <v>1</v>
-      </c>
-      <c r="L190" s="3">
-        <v>0</v>
-      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="2">
@@ -7679,24 +5399,12 @@
       <c r="F191" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="3">
-        <v>0</v>
-      </c>
-      <c r="I191" s="3">
-        <v>0</v>
-      </c>
-      <c r="J191" s="3">
-        <v>1</v>
-      </c>
-      <c r="K191" s="3">
-        <v>1</v>
-      </c>
-      <c r="L191" s="3">
-        <v>0</v>
-      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
